--- a/Дикий сбор - нефункциональное тестирование.xlsx
+++ b/Дикий сбор - нефункциональное тестирование.xlsx
@@ -73,6 +73,8 @@
 При нажатии на рецепт, не отображается крестик для закрытия карточки, хотя по факту он есть.
 	-Ko Po
 Кнопка "акции" приводит в колонку "О нас" где отсутствуют акции
+	-Ko Po
+Кнопка "условия обработки данных" в корзине, не кликабельна
 	-Ko Po</t>
       </text>
     </comment>
